--- a/data/trans_bre/P07_R2-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P07_R2-Clase-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>-1.96574559249757</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-0.733331654818703</v>
+        <v>-0.7333316548187141</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>-0.0570000949420575</v>
@@ -649,7 +649,7 @@
         <v>-0.02132814561940586</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>-0.008438763013423325</v>
+        <v>-0.008438763013423452</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-10.11129688626991</v>
+        <v>-10.47319128579483</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-3.916397187688303</v>
+        <v>-3.987333506202836</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.980363800075164</v>
+        <v>-6.642277259770729</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.961549771509259</v>
+        <v>-4.39156640852775</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1124245940430143</v>
+        <v>-0.1162318513138315</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.04272131141604915</v>
+        <v>-0.04303962471097358</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.06381426048038011</v>
+        <v>-0.07089610938496892</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.05550725307626279</v>
+        <v>-0.04952246638108451</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-0.403667839592722</v>
+        <v>0.519670070435726</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.637815819909368</v>
+        <v>5.183503227244413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.443618840816112</v>
+        <v>2.187034335954772</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.168654327337673</v>
+        <v>3.002997562846767</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>-0.004728972964728348</v>
+        <v>0.005942212121682583</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.06429232527322269</v>
+        <v>0.05975828257815403</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02702934355316491</v>
+        <v>0.02371110790008343</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.03767968720298083</v>
+        <v>0.03513754056395793</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-2.101713657173265</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-2.491048471108959</v>
+        <v>-2.49104847110897</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.04918782845722385</v>
@@ -749,7 +749,7 @@
         <v>-0.02370556887007877</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.02831244497546392</v>
+        <v>-0.02831244497546405</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.499553011911587</v>
+        <v>-9.35150339851983</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-8.815931436541026</v>
+        <v>-8.268831876543883</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-7.526458696345761</v>
+        <v>-6.850667261127509</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.537688677935953</v>
+        <v>-6.534736326555396</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1053381253390645</v>
+        <v>-0.1035639767311917</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.09729267504452821</v>
+        <v>-0.09084193660074577</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.08220147585620549</v>
+        <v>-0.07555998979311807</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.07245859514637104</v>
+        <v>-0.07246706354879755</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4503227258637805</v>
+        <v>0.9321876042024767</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.031103667477216</v>
+        <v>1.987323226996959</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.736259400713794</v>
+        <v>2.913849878164773</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.732118068449089</v>
+        <v>1.711075613816325</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.005032412957819773</v>
+        <v>0.01069769748154864</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02327198015218987</v>
+        <v>0.02293240690563694</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03191692421917077</v>
+        <v>0.03317597999336139</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.01986735543104972</v>
+        <v>0.01999094807629647</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>-9.887461721064494</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-7.395567221873788</v>
+        <v>-7.395567221873778</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.1413736917647396</v>
@@ -849,7 +849,7 @@
         <v>-0.119820063178076</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.09295023006882464</v>
+        <v>-0.09295023006882451</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-19.60604869148714</v>
+        <v>-19.71721392380811</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.320421376268687</v>
+        <v>-8.416180089733565</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-18.74376519849488</v>
+        <v>-18.12876256049086</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-14.01641184254286</v>
+        <v>-13.65566811397195</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2331959345729195</v>
+        <v>-0.2308586921262524</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.1047976007616709</v>
+        <v>-0.1061833146132271</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2233009785079349</v>
+        <v>-0.2148170128802329</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1737373639788996</v>
+        <v>-0.1683170649312575</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-4.582076907839054</v>
+        <v>-4.439380976441611</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.020440201522307</v>
+        <v>4.678394401256754</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-2.243215585898186</v>
+        <v>-1.942706681309118</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-1.089112122647947</v>
+        <v>-1.517271406796715</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>-0.05512604411766337</v>
+        <v>-0.05512453689869894</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06529649670605191</v>
+        <v>0.06155691272909117</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>-0.02910287548896296</v>
+        <v>-0.02319000346273431</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>-0.01396090375441197</v>
+        <v>-0.01974515900944654</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-9.452045428796986</v>
+        <v>-9.498848828575969</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-5.240120083494839</v>
+        <v>-5.622098403418435</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-4.024746431564596</v>
+        <v>-4.398360773559315</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.571034789823185</v>
+        <v>-2.801869882076759</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1152973750970795</v>
+        <v>-0.1155357321250405</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.06375363414432908</v>
+        <v>-0.06972384757503483</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04916035470687756</v>
+        <v>-0.05361924880832701</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.0322385805883573</v>
+        <v>-0.03544484670789472</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-1.479603648798212</v>
+        <v>-1.640421701114727</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.555105437106014</v>
+        <v>2.466343640323855</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.045610751544595</v>
+        <v>3.087347710072396</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.829213341843966</v>
+        <v>4.022648501606073</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.01899341843946644</v>
+        <v>-0.02096526158642488</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03266804618579901</v>
+        <v>0.03153478284673045</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0385361125111629</v>
+        <v>0.03879191320600923</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.05033394844141238</v>
+        <v>0.05234125480283879</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-9.582604976690945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-13.01943030630194</v>
+        <v>-13.01943030630192</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.1306844066258591</v>
@@ -1049,7 +1049,7 @@
         <v>-0.1225587770671955</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.1650210215458713</v>
+        <v>-0.165021021545871</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-16.13836407797714</v>
+        <v>-16.00760888573731</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-23.60998545781037</v>
+        <v>-22.65945624863832</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-14.39856436981554</v>
+        <v>-14.3435383277202</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-17.22991649904534</v>
+        <v>-16.92549407171135</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.2002322453159814</v>
+        <v>-0.2000917750294571</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.2808098236475007</v>
+        <v>-0.2704830623830113</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.1779283047124486</v>
+        <v>-0.1789455608732081</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2106750417069516</v>
+        <v>-0.2099349856585368</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.181167081181896</v>
+        <v>-3.549583927608419</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-13.21065270220746</v>
+        <v>-13.12375048216451</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-5.08139486916503</v>
+        <v>-4.362530085442105</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-8.629238919608714</v>
+        <v>-8.271581656758466</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.0556460634538053</v>
+        <v>-0.04996131405231183</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>-0.1700620740186176</v>
+        <v>-0.1654720040295698</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>-0.06681644585598379</v>
+        <v>-0.06088028462378917</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.1124240789724311</v>
+        <v>-0.109114689410754</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-26.02156490522117</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-25.2165634861518</v>
+        <v>-25.21656348615178</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.3336418713084709</v>
@@ -1149,7 +1149,7 @@
         <v>-0.2685182481200359</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.2638558730270737</v>
+        <v>-0.2638558730270735</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-35.49766407842686</v>
+        <v>-35.35309470833717</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-31.8242669601972</v>
+        <v>-31.50692875022205</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-29.37270776144825</v>
+        <v>-29.81552018553549</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-28.78454954168897</v>
+        <v>-28.71542539652847</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3667952142475661</v>
+        <v>-0.3654894348761981</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.3327145683052881</v>
+        <v>-0.3265401828605425</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.300887874073765</v>
+        <v>-0.3049671575250237</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2987454914335776</v>
+        <v>-0.2979781374871558</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-28.38174241947865</v>
+        <v>-28.57333138275374</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-23.41055154334002</v>
+        <v>-23.52346683290828</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>-22.18677398877321</v>
+        <v>-22.37953919616135</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-21.21559398696902</v>
+        <v>-20.68726028530663</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.3012805928107737</v>
+        <v>-0.3021392449993047</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.2547260384804748</v>
+        <v>-0.2539557872986429</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>-0.2325118724845946</v>
+        <v>-0.2338958046678469</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2278745380566218</v>
+        <v>-0.2233164657438332</v>
       </c>
     </row>
     <row r="22">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-15.01874186789385</v>
+        <v>-15.04479262074141</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-11.89818826885875</v>
+        <v>-12.01005796647031</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-10.0829435129325</v>
+        <v>-9.990934673291301</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-8.908874792013927</v>
+        <v>-9.115010414467044</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.176483664060014</v>
+        <v>-0.1761623530472726</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.1405284829321689</v>
+        <v>-0.1427521119114279</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1184888648920009</v>
+        <v>-0.1171632423595944</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.1065369496445243</v>
+        <v>-0.1097371343963918</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-10.92223143252023</v>
+        <v>-11.02411372859008</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-7.939341318127548</v>
+        <v>-7.946965844015512</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-6.210624880687218</v>
+        <v>-6.019198787230336</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>-5.380486142159844</v>
+        <v>-5.551300211765248</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>-0.131158008207349</v>
+        <v>-0.1315293614324171</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>-0.09606821078430167</v>
+        <v>-0.09654675296238441</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>-0.07518868835320312</v>
+        <v>-0.07258014301012701</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>-0.06551841008466458</v>
+        <v>-0.06830550145271551</v>
       </c>
     </row>
     <row r="25">
